--- a/TP2/Ej1_Bodes/Inversor_G10_OK.xlsx
+++ b/TP2/Ej1_Bodes/Inversor_G10_OK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo\Desktop\Ej1_Bodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo\Documents\GitHub\InformesTC\TP2\Ej1_Bodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C8282C-4F6A-4D22-912C-DB0828112DA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B759AC4F-9D76-4103-B3E8-7A862162A9F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{E824527F-BA9E-4DA1-8AC4-9FA24F6C887B}"/>
   </bookViews>
@@ -31,15 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>freq</t>
   </si>
   <si>
     <t>Gain</t>
-  </si>
-  <si>
-    <t>amplitud maxima pico</t>
   </si>
   <si>
     <t>vpp</t>
@@ -57,15 +54,29 @@
     <t>offset</t>
   </si>
   <si>
-    <t>out</t>
+    <t>amp maxima pico</t>
+  </si>
+  <si>
+    <t>vd</t>
+  </si>
+  <si>
+    <t>Zinp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,8 +104,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,655 +426,1027 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD3EE80-38E8-44CB-BEE1-5510C8E17144}">
-  <dimension ref="A2:M25"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="C3">
+      <c r="M2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
         <v>5000</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f>(500000/(2*PI()*C3*A3))</f>
         <v>1.5915494309189533</v>
       </c>
-      <c r="F3">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
         <f>2*D3</f>
         <v>3.1830988618379066</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>0.76</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>1.2</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>20.2</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>173</v>
       </c>
-      <c r="M3">
-        <f>(G3-H3/2)*A3</f>
-        <v>1.6000000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="C4">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1">
+        <f>(H3*1200)/(H3-L3)</f>
+        <v>1200</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
         <v>6000</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f t="shared" ref="D4:D25" si="0">(500000/(2*PI()*C4*A4))</f>
         <v>1.3262911924324612</v>
       </c>
-      <c r="F4">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
         <f t="shared" ref="F4:F25" si="1">2*D4</f>
         <v>2.6525823848649224</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>0.76</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>20.2</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>172</v>
       </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M25" si="2">(G4-H4/2)*A4</f>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>10</v>
-      </c>
-      <c r="C5">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M25" si="2">(H4*1200)/(H4-L4)</f>
+        <v>1200</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
         <v>7000</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>1.1368210220849668</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
         <f t="shared" si="1"/>
         <v>2.2736420441699337</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>0.6</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>20.2</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>171</v>
       </c>
-      <c r="M5">
-        <f t="shared" si="2"/>
-        <v>0.99999999999999978</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="C6">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
         <v>8000</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>0.99471839432434594</v>
       </c>
-      <c r="F6">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
         <f t="shared" si="1"/>
         <v>1.9894367886486919</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>0.5</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>0.9</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>20.100000000000001</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>170</v>
       </c>
-      <c r="M6">
-        <f t="shared" si="2"/>
-        <v>0.49999999999999989</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="C7">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
         <v>9000</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>0.88419412828830735</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
         <v>1.7683882565766147</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>0.5</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>0.75</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>20.100000000000001</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>168</v>
       </c>
-      <c r="M7">
-        <f t="shared" si="2"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>10</v>
-      </c>
-      <c r="C8">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
         <v>10000</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>0.79577471545947664</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
         <f t="shared" si="1"/>
         <v>1.5915494309189533</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>0.4</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>0.6</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>20</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>167</v>
       </c>
-      <c r="M8">
-        <f t="shared" si="2"/>
-        <v>1.0000000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>10</v>
-      </c>
-      <c r="C9">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
         <v>20000</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>0.39788735772973832</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
         <f t="shared" si="1"/>
         <v>0.79577471545947664</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>0.3</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>0.1</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>19.600000000000001</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>157</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="C10">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
         <v>30000</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>0.26525823848649221</v>
       </c>
-      <c r="F10">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
         <f t="shared" si="1"/>
         <v>0.53051647697298443</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>0.2</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>0.1</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>18.899999999999999</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>150</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="2"/>
-        <v>1.5000000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="C11">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1">
         <v>40000</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>0.19894367886486916</v>
       </c>
-      <c r="F11">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
         <f t="shared" si="1"/>
         <v>0.39788735772973832</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>0.15</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>18.399999999999999</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>140</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="2"/>
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="C12">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1">
         <v>45000</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>0.17683882565766146</v>
       </c>
-      <c r="F12">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
         <f t="shared" si="1"/>
         <v>0.35367765131532292</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>18</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>137</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="2"/>
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="C13">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
         <v>46000</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>0.17299450336075578</v>
       </c>
-      <c r="F13">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
         <f t="shared" si="1"/>
         <v>0.34598900672151156</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>0.13</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>17.8</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>135</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="C14">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
         <v>47000</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>0.16931376924669717</v>
       </c>
-      <c r="F14">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
         <f t="shared" si="1"/>
         <v>0.33862753849339433</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>0.13</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>17.7</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>134</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>10</v>
-      </c>
-      <c r="C16">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1">
         <v>49000</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>0.16240300315499526</v>
       </c>
-      <c r="F16">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
         <f t="shared" si="1"/>
         <v>0.32480600630999051</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>0.12</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>132</v>
       </c>
-      <c r="M16">
-        <f t="shared" si="2"/>
-        <v>0.84999999999999987</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>10</v>
-      </c>
-      <c r="C18">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1">
         <v>51000</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <f t="shared" si="0"/>
         <v>0.15603425793323072</v>
       </c>
-      <c r="F18">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
         <f t="shared" si="1"/>
         <v>0.31206851586646145</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>0.12</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>17.399999999999999</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>132</v>
       </c>
-      <c r="M18">
-        <f t="shared" si="2"/>
-        <v>0.84999999999999987</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>10</v>
-      </c>
-      <c r="C20">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1">
         <v>53000</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <f t="shared" si="0"/>
         <v>0.15014617272820316</v>
       </c>
-      <c r="F20">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1">
         <f t="shared" si="1"/>
         <v>0.30029234545640632</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>0.11</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>17.2</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <v>130</v>
       </c>
-      <c r="M20">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>10</v>
-      </c>
-      <c r="C22">
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1">
         <v>55000</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <f t="shared" si="0"/>
         <v>0.14468631190172304</v>
       </c>
-      <c r="F22">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1">
         <f t="shared" si="1"/>
         <v>0.28937262380344608</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>0.1</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>17</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <v>129</v>
       </c>
-      <c r="M22">
-        <f t="shared" si="2"/>
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>10</v>
-      </c>
-      <c r="C23">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1">
         <v>56000</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <f t="shared" si="0"/>
         <v>0.14210262776062085</v>
       </c>
-      <c r="F23">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1">
         <f t="shared" si="1"/>
         <v>0.28420525552124171</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>0.1</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>16.899999999999999</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="1">
         <v>128</v>
       </c>
-      <c r="M23">
-        <f t="shared" si="2"/>
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>10</v>
-      </c>
-      <c r="C24">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1">
         <v>57000</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <f t="shared" si="0"/>
         <v>0.13960959920341698</v>
       </c>
-      <c r="F24">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1">
         <f t="shared" si="1"/>
         <v>0.27921919840683396</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>0.1</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="1">
         <v>16.8</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="1">
         <v>128</v>
       </c>
-      <c r="M24">
-        <f t="shared" si="2"/>
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>10</v>
-      </c>
-      <c r="C25">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1">
         <v>60000</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <f t="shared" si="0"/>
         <v>0.13262911924324611</v>
       </c>
-      <c r="F25">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1">
         <f t="shared" si="1"/>
         <v>0.26525823848649221</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>0.09</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="1">
         <v>16.5</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="1">
         <v>125</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="2"/>
-        <v>0.54999999999999993</v>
-      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TP2/Ej1_Bodes/Inversor_G10_OK.xlsx
+++ b/TP2/Ej1_Bodes/Inversor_G10_OK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo\Documents\GitHub\InformesTC\TP2\Ej1_Bodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B759AC4F-9D76-4103-B3E8-7A862162A9F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B9E8F0-78EF-4EBC-B0C1-B0A2ACAE6AFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{E824527F-BA9E-4DA1-8AC4-9FA24F6C887B}"/>
   </bookViews>
@@ -67,6 +67,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000E+00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,12 +107,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -429,13 +438,14 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -530,10 +540,12 @@
         <v>173</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1">
+      <c r="L3" s="3">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="M3" s="4">
         <f>(H3*1200)/(H3-L3)</f>
-        <v>1200</v>
+        <v>1208.2564188622252</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -572,10 +584,12 @@
         <v>172</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1">
+      <c r="L4" s="3">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="M4" s="4">
         <f t="shared" ref="M4:M25" si="2">(H4*1200)/(H4-L4)</f>
-        <v>1200</v>
+        <v>1208.8244182532487</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -614,10 +628,12 @@
         <v>171</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1">
-        <f t="shared" si="2"/>
-        <v>1200</v>
+      <c r="L5" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="2"/>
+        <v>1208.4592145015106</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -656,10 +672,12 @@
         <v>170</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1">
-        <f t="shared" si="2"/>
-        <v>1200</v>
+      <c r="L6" s="3">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="2"/>
+        <v>1208.7297146054839</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -698,10 +716,12 @@
         <v>168</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1">
-        <f t="shared" si="2"/>
-        <v>1200</v>
+      <c r="L7" s="3">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="2"/>
+        <v>1209.1898428053205</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -740,10 +760,12 @@
         <v>167</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1">
-        <f t="shared" si="2"/>
-        <v>1200</v>
+      <c r="L8" s="3">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="2"/>
+        <v>1209.0680100755667</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -782,8 +804,10 @@
         <v>157</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1">
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
@@ -824,8 +848,10 @@
         <v>150</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1">
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
@@ -866,8 +892,10 @@
         <v>140</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1">
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
@@ -908,8 +936,10 @@
         <v>137</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1">
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
@@ -950,8 +980,10 @@
         <v>135</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1">
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
@@ -992,8 +1024,10 @@
         <v>134</v>
       </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1">
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
@@ -1017,7 +1051,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="4"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1055,8 +1089,10 @@
         <v>132</v>
       </c>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1">
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
@@ -1080,7 +1116,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="M17" s="4"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1118,8 +1154,10 @@
         <v>132</v>
       </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1">
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
@@ -1143,7 +1181,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="4"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1181,8 +1219,10 @@
         <v>130</v>
       </c>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1">
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
@@ -1206,7 +1246,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="4"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -1244,8 +1284,10 @@
         <v>129</v>
       </c>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1">
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
@@ -1286,8 +1328,10 @@
         <v>128</v>
       </c>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1">
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
@@ -1328,8 +1372,10 @@
         <v>128</v>
       </c>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1">
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
@@ -1370,8 +1416,10 @@
         <v>125</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1">
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
